--- a/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI03FLMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9192" yWindow="3960" windowWidth="25392" windowHeight="13788" activeTab="1"/>
+    <workbookView xWindow="9195" yWindow="3960" windowWidth="25395" windowHeight="13785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="145">
   <si>
     <t>Ref Des</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>N00512</t>
+  </si>
+  <si>
+    <t>OL000003</t>
+  </si>
+  <si>
+    <t>OL000021</t>
   </si>
 </sst>
 </file>
@@ -1877,26 +1883,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>116</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="38" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1992,28 +1998,28 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121:E122"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="8" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="8" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="30.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="17" width="8.85546875" style="2"/>
+    <col min="18" max="18" width="30.140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2065,7 +2071,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>78</v>
       </c>
@@ -2102,7 +2108,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>78</v>
       </c>
@@ -2137,7 +2143,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -2170,7 +2176,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>78</v>
       </c>
@@ -2203,7 +2209,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>78</v>
       </c>
@@ -2236,7 +2242,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>78</v>
       </c>
@@ -2268,7 +2274,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>78</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>78</v>
       </c>
@@ -2338,7 +2344,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>78</v>
       </c>
@@ -2373,7 +2379,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>78</v>
       </c>
@@ -2408,7 +2414,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
@@ -2425,7 +2431,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>87</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>79</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>79</v>
       </c>
@@ -2528,7 +2534,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>79</v>
       </c>
@@ -2561,7 +2567,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
@@ -2594,7 +2600,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -2627,7 +2633,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
@@ -2662,7 +2668,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="31"/>
@@ -2679,7 +2685,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -2716,7 +2722,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2757,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>46</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="31"/>
@@ -2801,7 +2807,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2838,7 +2844,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>80</v>
       </c>
@@ -2871,7 +2877,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>80</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>80</v>
       </c>
@@ -2937,7 +2943,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>80</v>
       </c>
@@ -2970,7 +2976,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>80</v>
       </c>
@@ -3003,7 +3009,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>80</v>
       </c>
@@ -3036,7 +3042,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>80</v>
       </c>
@@ -3069,7 +3075,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
@@ -3102,7 +3108,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="31"/>
@@ -3119,7 +3125,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>88</v>
       </c>
@@ -3157,7 +3163,7 @@
       <c r="O36" s="18"/>
       <c r="R36" s="20"/>
     </row>
-    <row r="37" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>111</v>
       </c>
@@ -3190,7 +3196,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>111</v>
       </c>
@@ -3223,7 +3229,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>111</v>
       </c>
@@ -3256,7 +3262,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="31"/>
@@ -3273,7 +3279,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>89</v>
       </c>
@@ -3310,7 +3316,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>110</v>
       </c>
@@ -3343,7 +3349,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>110</v>
       </c>
@@ -3376,7 +3382,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>110</v>
       </c>
@@ -3409,7 +3415,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="31"/>
@@ -3426,7 +3432,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>90</v>
       </c>
@@ -3463,7 +3469,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>109</v>
       </c>
@@ -3496,7 +3502,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>109</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>109</v>
       </c>
@@ -3562,7 +3568,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="31"/>
@@ -3579,7 +3585,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>91</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>108</v>
       </c>
@@ -3649,7 +3655,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>108</v>
       </c>
@@ -3682,7 +3688,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>108</v>
       </c>
@@ -3715,7 +3721,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="31"/>
@@ -3733,7 +3739,7 @@
       <c r="O55" s="18"/>
       <c r="R55" s="20"/>
     </row>
-    <row r="56" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3771,7 +3777,7 @@
       <c r="O56" s="18"/>
       <c r="R56" s="20"/>
     </row>
-    <row r="57" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>107</v>
       </c>
@@ -3805,7 +3811,7 @@
       <c r="O57" s="18"/>
       <c r="R57" s="20"/>
     </row>
-    <row r="58" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>107</v>
       </c>
@@ -3838,7 +3844,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>107</v>
       </c>
@@ -3871,7 +3877,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="31"/>
@@ -3888,7 +3894,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>93</v>
       </c>
@@ -3925,7 +3931,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>106</v>
       </c>
@@ -3958,7 +3964,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>106</v>
       </c>
@@ -3991,7 +3997,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>106</v>
       </c>
@@ -4024,7 +4030,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="31"/>
@@ -4041,7 +4047,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>94</v>
       </c>
@@ -4078,7 +4084,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>105</v>
       </c>
@@ -4111,7 +4117,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>105</v>
       </c>
@@ -4144,7 +4150,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>105</v>
       </c>
@@ -4177,7 +4183,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="31"/>
@@ -4194,7 +4200,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>95</v>
       </c>
@@ -4231,7 +4237,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>104</v>
       </c>
@@ -4264,7 +4270,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>104</v>
       </c>
@@ -4297,7 +4303,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>104</v>
       </c>
@@ -4330,7 +4336,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="31"/>
@@ -4347,7 +4353,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>96</v>
       </c>
@@ -4384,7 +4390,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>103</v>
       </c>
@@ -4417,7 +4423,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>103</v>
       </c>
@@ -4451,7 +4457,7 @@
       <c r="O78" s="18"/>
       <c r="R78" s="20"/>
     </row>
-    <row r="79" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>103</v>
       </c>
@@ -4485,7 +4491,7 @@
       <c r="O79" s="18"/>
       <c r="R79" s="20"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="31"/>
@@ -4503,7 +4509,7 @@
       <c r="O80" s="18"/>
       <c r="R80" s="20"/>
     </row>
-    <row r="81" spans="1:18" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>99</v>
       </c>
@@ -4542,7 +4548,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="20"/>
     </row>
-    <row r="82" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>102</v>
       </c>
@@ -4576,7 +4582,7 @@
       <c r="O82" s="18"/>
       <c r="R82" s="20"/>
     </row>
-    <row r="83" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>102</v>
       </c>
@@ -4610,7 +4616,7 @@
       <c r="O83" s="18"/>
       <c r="R83" s="20"/>
     </row>
-    <row r="84" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>102</v>
       </c>
@@ -4644,7 +4650,7 @@
       <c r="O84" s="18"/>
       <c r="R84" s="20"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="31"/>
@@ -4661,7 +4667,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>98</v>
       </c>
@@ -4698,7 +4704,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>101</v>
       </c>
@@ -4731,7 +4737,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
@@ -4764,7 +4770,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>101</v>
       </c>
@@ -4797,7 +4803,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="31"/>
@@ -4814,7 +4820,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>97</v>
       </c>
@@ -4851,7 +4857,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>100</v>
       </c>
@@ -4884,7 +4890,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4923,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>100</v>
       </c>
@@ -4950,7 +4956,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="31"/>
@@ -4967,7 +4973,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:18" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>112</v>
       </c>
@@ -5004,7 +5010,7 @@
       <c r="N96" s="26"/>
       <c r="O96" s="26"/>
     </row>
-    <row r="97" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>112</v>
       </c>
@@ -5036,7 +5042,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>112</v>
       </c>
@@ -5068,7 +5074,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="31"/>
@@ -5084,7 +5090,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>113</v>
       </c>
@@ -5120,7 +5126,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>113</v>
       </c>
@@ -5152,7 +5158,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>113</v>
       </c>
@@ -5184,7 +5190,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="31"/>
@@ -5200,7 +5206,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>114</v>
       </c>
@@ -5236,7 +5242,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>114</v>
       </c>
@@ -5269,7 +5275,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>114</v>
       </c>
@@ -5302,7 +5308,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="31"/>
@@ -5319,7 +5325,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>115</v>
       </c>
@@ -5356,7 +5362,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>115</v>
       </c>
@@ -5389,7 +5395,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>115</v>
       </c>
@@ -5422,7 +5428,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="31"/>
@@ -5430,7 +5436,7 @@
       <c r="E111" s="33"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>81</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>81</v>
       </c>
@@ -5489,7 +5495,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="31"/>
@@ -5506,7 +5512,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>82</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>82</v>
       </c>
@@ -5565,7 +5571,7 @@
       </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="31"/>
@@ -5582,7 +5588,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>83</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>83</v>
       </c>
@@ -5641,7 +5647,7 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="31"/>
@@ -5658,7 +5664,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>84</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>84</v>
       </c>
@@ -5717,7 +5723,7 @@
       </c>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="31"/>
@@ -5734,7 +5740,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -5746,6 +5752,9 @@
       </c>
       <c r="D124" s="8">
         <v>2</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="F124" s="51">
         <v>12372</v>
@@ -5762,11 +5771,11 @@
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F125" s="42"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:15" s="42" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -5778,6 +5787,9 @@
       </c>
       <c r="D126" s="42">
         <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>143</v>
       </c>
       <c r="F126" s="51">
         <v>13993</v>
@@ -5794,7 +5806,7 @@
       <c r="N126" s="49"/>
       <c r="O126" s="49"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -5811,7 +5823,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -5827,7 +5839,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -5843,7 +5855,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -5860,7 +5872,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
@@ -308,12 +308,6 @@
     <t>GI03FLMA-RI000-00-VELPTB100</t>
   </si>
   <si>
-    <t>GI03FLMA-FMS01-01-SIOENG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-FMM01-01-SIOENG000</t>
-  </si>
-  <si>
     <r>
       <t>GI03FLMA-RIS01-04-PHSEN</t>
     </r>
@@ -651,6 +645,12 @@
   </si>
   <si>
     <t>OL000021</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIS01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-00-SIOENG000</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1904,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>0</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="2" spans="1:14" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>74</v>
@@ -1998,8 +1998,8 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>40</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>2</v>
@@ -2076,16 +2076,16 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
       </c>
       <c r="F3" s="21">
         <v>1298</v>
@@ -2113,16 +2113,16 @@
         <v>78</v>
       </c>
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="33">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="33">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
       </c>
       <c r="F4" s="34">
         <v>1298</v>
@@ -2148,16 +2148,16 @@
         <v>78</v>
       </c>
       <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="33">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
       </c>
       <c r="F5" s="34">
         <v>1298</v>
@@ -2181,16 +2181,16 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="33">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="33">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
       </c>
       <c r="F6" s="34">
         <v>1298</v>
@@ -2214,16 +2214,16 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="33">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
       </c>
       <c r="F7" s="34">
         <v>1298</v>
@@ -2247,16 +2247,16 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="33">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
       </c>
       <c r="F8" s="34">
         <v>1298</v>
@@ -2279,16 +2279,16 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="33">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
       </c>
       <c r="F9" s="34">
         <v>1298</v>
@@ -2314,16 +2314,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="33">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>117</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="33">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
       </c>
       <c r="F10" s="34">
         <v>1298</v>
@@ -2349,16 +2349,16 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="33">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>117</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="33">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
       </c>
       <c r="F11" s="34">
         <v>1298</v>
@@ -2384,16 +2384,16 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="33">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>119</v>
       </c>
       <c r="F12" s="34">
         <v>1298</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>48</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>50</v>
@@ -2473,7 +2473,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>48</v>
@@ -2482,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>50</v>
@@ -2506,7 +2506,7 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>48</v>
@@ -2515,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>50</v>
@@ -2539,7 +2539,7 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>48</v>
@@ -2548,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>50</v>
@@ -2572,7 +2572,7 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>48</v>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>50</v>
@@ -2605,7 +2605,7 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>48</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>50</v>
@@ -2638,7 +2638,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>48</v>
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>50</v>
@@ -2690,7 +2690,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>48</v>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="21">
         <v>465</v>
@@ -2727,7 +2727,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>48</v>
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="34">
         <v>465</v>
@@ -2762,7 +2762,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>48</v>
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="34">
         <v>465</v>
@@ -2812,7 +2812,7 @@
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>48</v>
@@ -2821,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="21">
         <v>23380</v>
@@ -2849,7 +2849,7 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>48</v>
@@ -2858,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" s="34">
         <v>23380</v>
@@ -2882,7 +2882,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>48</v>
@@ -2891,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="34">
         <v>23380</v>
@@ -2915,7 +2915,7 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>48</v>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="34">
         <v>23380</v>
@@ -2948,7 +2948,7 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>48</v>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="34">
         <v>23380</v>
@@ -2981,7 +2981,7 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>48</v>
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="34">
         <v>23380</v>
@@ -3014,7 +3014,7 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>48</v>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="34">
         <v>23380</v>
@@ -3047,7 +3047,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>48</v>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="34">
         <v>23380</v>
@@ -3080,7 +3080,7 @@
         <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>48</v>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="34">
         <v>23380</v>
@@ -3127,10 +3127,10 @@
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>48</v>
@@ -3139,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>51</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>48</v>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>51</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>48</v>
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>51</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>48</v>
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F39" s="34" t="s">
         <v>51</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>48</v>
@@ -3293,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>52</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>48</v>
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>52</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>48</v>
@@ -3363,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>52</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>48</v>
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>52</v>
@@ -3434,10 +3434,10 @@
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>48</v>
@@ -3446,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>53</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>48</v>
@@ -3483,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>53</v>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" s="31" t="s">
         <v>48</v>
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>53</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>48</v>
@@ -3549,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>53</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>48</v>
@@ -3599,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>54</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>48</v>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F52" s="34" t="s">
         <v>54</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>48</v>
@@ -3669,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="34" t="s">
         <v>54</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>48</v>
@@ -3702,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>54</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>48</v>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>55</v>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>48</v>
@@ -3791,7 +3791,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>55</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>48</v>
@@ -3825,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>55</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>48</v>
@@ -3858,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>55</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="32" t="s">
         <v>48</v>
@@ -3908,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>56</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>48</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>56</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>48</v>
@@ -3978,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>56</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>48</v>
@@ -4011,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>56</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>48</v>
@@ -4061,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>57</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" s="31" t="s">
         <v>48</v>
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>57</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="31" t="s">
         <v>48</v>
@@ -4131,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>57</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>48</v>
@@ -4164,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>57</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>48</v>
@@ -4214,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>58</v>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>48</v>
@@ -4251,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>58</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" s="31" t="s">
         <v>48</v>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>58</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>48</v>
@@ -4317,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>58</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>48</v>
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F76" s="21" t="s">
         <v>59</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="31" t="s">
         <v>48</v>
@@ -4404,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="34" t="s">
         <v>59</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>48</v>
@@ -4437,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>59</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>48</v>
@@ -4471,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>59</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="32" t="s">
         <v>48</v>
@@ -4523,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>60</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>48</v>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F82" s="34" t="s">
         <v>60</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="31" t="s">
         <v>48</v>
@@ -4596,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F83" s="34" t="s">
         <v>60</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>48</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F84" s="34" t="s">
         <v>60</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="32" t="s">
         <v>48</v>
@@ -4681,7 +4681,7 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>61</v>
@@ -4706,10 +4706,10 @@
     </row>
     <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>48</v>
@@ -4718,7 +4718,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>61</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="31" t="s">
         <v>48</v>
@@ -4751,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F88" s="34" t="s">
         <v>61</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" s="31" t="s">
         <v>48</v>
@@ -4784,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F89" s="34" t="s">
         <v>61</v>
@@ -4822,10 +4822,10 @@
     </row>
     <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>48</v>
@@ -4834,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="21" t="s">
         <v>62</v>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" s="31" t="s">
         <v>48</v>
@@ -4871,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="34" t="s">
         <v>62</v>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="31" t="s">
         <v>48</v>
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F93" s="34" t="s">
         <v>62</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C94" s="31" t="s">
         <v>48</v>
@@ -4937,7 +4937,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F94" s="34" t="s">
         <v>62</v>
@@ -4975,10 +4975,10 @@
     </row>
     <row r="96" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>48</v>
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>63</v>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="31" t="s">
         <v>48</v>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F97" s="34" t="s">
         <v>63</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>48</v>
@@ -5056,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F98" s="34" t="s">
         <v>63</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="100" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>48</v>
@@ -5104,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F100" s="21" t="s">
         <v>64</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C101" s="31" t="s">
         <v>48</v>
@@ -5140,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F101" s="34" t="s">
         <v>64</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>48</v>
@@ -5172,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F102" s="34" t="s">
         <v>64</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>48</v>
@@ -5220,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F104" s="21" t="s">
         <v>65</v>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C105" s="31" t="s">
         <v>48</v>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" s="34" t="s">
         <v>65</v>
@@ -5277,10 +5277,10 @@
     </row>
     <row r="106" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C106" s="31" t="s">
         <v>48</v>
@@ -5289,7 +5289,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F106" s="34" t="s">
         <v>65</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="32" t="s">
         <v>48</v>
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F108" s="21" t="s">
         <v>66</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="109" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109" s="31" t="s">
         <v>48</v>
@@ -5376,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F109" s="34" t="s">
         <v>66</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="110" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C110" s="31" t="s">
         <v>48</v>
@@ -5409,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F110" s="34" t="s">
         <v>66</v>
@@ -5441,7 +5441,7 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C112" s="32" t="s">
         <v>48</v>
@@ -5450,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>67</v>
@@ -5473,7 +5473,7 @@
         <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C113" s="31" t="s">
         <v>48</v>
@@ -5482,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>67</v>
@@ -5517,7 +5517,7 @@
         <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>48</v>
@@ -5526,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>68</v>
@@ -5549,7 +5549,7 @@
         <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>48</v>
@@ -5558,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F116" s="33" t="s">
         <v>68</v>
@@ -5583,7 +5583,6 @@
       <c r="I117" s="19"/>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
-      <c r="L117" s="21"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
@@ -5593,7 +5592,7 @@
         <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>48</v>
@@ -5602,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>69</v>
@@ -5625,7 +5624,7 @@
         <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C119" s="31" t="s">
         <v>48</v>
@@ -5634,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F119" s="33" t="s">
         <v>69</v>
@@ -5669,7 +5668,7 @@
         <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>48</v>
@@ -5678,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>70</v>
@@ -5701,7 +5700,7 @@
         <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C122" s="31" t="s">
         <v>48</v>
@@ -5710,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>70</v>
@@ -5741,11 +5740,11 @@
       <c r="O123" s="18"/>
     </row>
     <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>85</v>
+      <c r="A124" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>48</v>
@@ -5754,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F124" s="51">
         <v>12372</v>
@@ -5776,11 +5775,11 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:15" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>86</v>
+      <c r="A126" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C126" s="48" t="s">
         <v>48</v>
@@ -5789,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F126" s="51">
         <v>13993</v>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
@@ -641,9 +641,6 @@
     <t>N00512</t>
   </si>
   <si>
-    <t>OL000003</t>
-  </si>
-  <si>
     <t>OL000021</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>GI03FLMA-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>OL000004</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1998,8 +1998,8 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" t="s">
         <v>115</v>
@@ -5753,7 +5753,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F124" s="51">
         <v>12372</v>
@@ -5776,19 +5776,19 @@
     </row>
     <row r="126" spans="1:15" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="42">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
         <v>144</v>
-      </c>
-      <c r="B126" t="s">
-        <v>115</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="42">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>141</v>
       </c>
       <c r="F126" s="51">
         <v>13993</v>

--- a/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI03FLMA_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9195" yWindow="3960" windowWidth="25395" windowHeight="13785" activeTab="1"/>
+    <workbookView xWindow="9200" yWindow="3960" windowWidth="25400" windowHeight="13780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="146">
   <si>
     <t>Ref Des</t>
   </si>
@@ -652,6 +647,9 @@
   <si>
     <t>OL000004</t>
   </si>
+  <si>
+    <t>Units in mm</t>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +661,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +872,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1183,7 +1188,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1338,6 +1343,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="218">
@@ -1574,7 +1582,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1633,7 +1641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1668,7 +1676,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1883,26 +1891,26 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="7"/>
+    <col min="8" max="8" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="28">
       <c r="A1" s="53" t="s">
         <v>114</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="38" customFormat="1">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1998,28 +2006,28 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="8" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="8" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="30.140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="2"/>
+    <col min="15" max="17" width="8.83203125" style="2"/>
+    <col min="18" max="18" width="30.1640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="28">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2062,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2071,7 +2079,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="20" t="s">
         <v>78</v>
       </c>
@@ -2108,7 +2116,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>78</v>
       </c>
@@ -2143,7 +2151,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
@@ -2176,7 +2184,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="22" t="s">
         <v>78</v>
       </c>
@@ -2209,7 +2217,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="22" t="s">
         <v>78</v>
       </c>
@@ -2242,7 +2250,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="22" t="s">
         <v>78</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2317,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="22" t="s">
         <v>78</v>
       </c>
@@ -2344,7 +2352,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="22" t="s">
         <v>78</v>
       </c>
@@ -2379,7 +2387,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="22" t="s">
         <v>78</v>
       </c>
@@ -2414,7 +2422,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="31"/>
@@ -2431,7 +2439,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="20" t="s">
         <v>85</v>
       </c>
@@ -2468,7 +2476,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="22" t="s">
         <v>79</v>
       </c>
@@ -2501,7 +2509,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="22" t="s">
         <v>79</v>
       </c>
@@ -2534,7 +2542,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="22" t="s">
         <v>79</v>
       </c>
@@ -2567,7 +2575,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
@@ -2600,7 +2608,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -2633,7 +2641,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
@@ -2668,7 +2676,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="31"/>
@@ -2685,7 +2693,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -2722,7 +2730,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="22" t="s">
         <v>46</v>
       </c>
@@ -2757,7 +2765,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="22" t="s">
         <v>46</v>
       </c>
@@ -2790,7 +2798,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="31"/>
@@ -2807,7 +2815,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="20" t="s">
         <v>80</v>
       </c>
@@ -2844,7 +2852,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="20" t="s">
         <v>80</v>
       </c>
@@ -2877,7 +2885,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="20" t="s">
         <v>80</v>
       </c>
@@ -2910,7 +2918,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="20" t="s">
         <v>80</v>
       </c>
@@ -2943,7 +2951,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="20" t="s">
         <v>80</v>
       </c>
@@ -2965,10 +2973,12 @@
       <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="19"/>
+      <c r="H30" s="55">
+        <v>500000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>145</v>
+      </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="21"/>
@@ -2976,7 +2986,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="20" t="s">
         <v>80</v>
       </c>
@@ -3009,7 +3019,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="20" t="s">
         <v>80</v>
       </c>
@@ -3042,7 +3052,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="20" t="s">
         <v>80</v>
       </c>
@@ -3075,7 +3085,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="20" t="s">
         <v>80</v>
       </c>
@@ -3108,7 +3118,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="31"/>
@@ -3125,7 +3135,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="20" t="s">
         <v>86</v>
       </c>
@@ -3163,7 +3173,7 @@
       <c r="O36" s="18"/>
       <c r="R36" s="20"/>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="22" t="s">
         <v>109</v>
       </c>
@@ -3196,7 +3206,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="22" t="s">
         <v>109</v>
       </c>
@@ -3229,7 +3239,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="22" t="s">
         <v>109</v>
       </c>
@@ -3262,7 +3272,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="31"/>
@@ -3279,7 +3289,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="20" t="s">
         <v>87</v>
       </c>
@@ -3316,7 +3326,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="22" t="s">
         <v>108</v>
       </c>
@@ -3349,7 +3359,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="22" t="s">
         <v>108</v>
       </c>
@@ -3382,7 +3392,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="22" t="s">
         <v>108</v>
       </c>
@@ -3415,7 +3425,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="31"/>
@@ -3432,7 +3442,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="20" t="s">
         <v>88</v>
       </c>
@@ -3469,7 +3479,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="22" t="s">
         <v>107</v>
       </c>
@@ -3502,7 +3512,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="22" t="s">
         <v>107</v>
       </c>
@@ -3535,7 +3545,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="22" t="s">
         <v>107</v>
       </c>
@@ -3568,7 +3578,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="31"/>
@@ -3585,7 +3595,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="20" t="s">
         <v>89</v>
       </c>
@@ -3622,7 +3632,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="22" t="s">
         <v>106</v>
       </c>
@@ -3655,7 +3665,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="22" t="s">
         <v>106</v>
       </c>
@@ -3688,7 +3698,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="22" t="s">
         <v>106</v>
       </c>
@@ -3721,7 +3731,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="31"/>
@@ -3739,7 +3749,7 @@
       <c r="O55" s="18"/>
       <c r="R55" s="20"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="20" t="s">
         <v>90</v>
       </c>
@@ -3777,7 +3787,7 @@
       <c r="O56" s="18"/>
       <c r="R56" s="20"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="22" t="s">
         <v>105</v>
       </c>
@@ -3811,7 +3821,7 @@
       <c r="O57" s="18"/>
       <c r="R57" s="20"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="22" t="s">
         <v>105</v>
       </c>
@@ -3844,7 +3854,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="22" t="s">
         <v>105</v>
       </c>
@@ -3877,7 +3887,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="31"/>
@@ -3894,7 +3904,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="20" t="s">
         <v>91</v>
       </c>
@@ -3931,7 +3941,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" s="22" t="s">
         <v>104</v>
       </c>
@@ -3964,7 +3974,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" s="22" t="s">
         <v>104</v>
       </c>
@@ -3997,7 +4007,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="22" t="s">
         <v>104</v>
       </c>
@@ -4030,7 +4040,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="31"/>
@@ -4047,7 +4057,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66" s="20" t="s">
         <v>92</v>
       </c>
@@ -4084,7 +4094,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67" s="22" t="s">
         <v>103</v>
       </c>
@@ -4117,7 +4127,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68" s="22" t="s">
         <v>103</v>
       </c>
@@ -4150,7 +4160,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" s="22" t="s">
         <v>103</v>
       </c>
@@ -4183,7 +4193,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="31"/>
@@ -4200,7 +4210,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71" s="20" t="s">
         <v>93</v>
       </c>
@@ -4237,7 +4247,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72" s="22" t="s">
         <v>102</v>
       </c>
@@ -4270,7 +4280,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73" s="22" t="s">
         <v>102</v>
       </c>
@@ -4303,7 +4313,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" s="22" t="s">
         <v>102</v>
       </c>
@@ -4336,7 +4346,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="31"/>
@@ -4353,7 +4363,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76" s="20" t="s">
         <v>94</v>
       </c>
@@ -4390,7 +4400,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77" s="22" t="s">
         <v>101</v>
       </c>
@@ -4423,7 +4433,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" s="22" t="s">
         <v>101</v>
       </c>
@@ -4457,7 +4467,7 @@
       <c r="O78" s="18"/>
       <c r="R78" s="20"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79" s="22" t="s">
         <v>101</v>
       </c>
@@ -4491,7 +4501,7 @@
       <c r="O79" s="18"/>
       <c r="R79" s="20"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="31"/>
@@ -4509,7 +4519,7 @@
       <c r="O80" s="18"/>
       <c r="R80" s="20"/>
     </row>
-    <row r="81" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="1" customFormat="1">
       <c r="A81" s="20" t="s">
         <v>97</v>
       </c>
@@ -4548,7 +4558,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="20"/>
     </row>
-    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" s="27" t="s">
         <v>100</v>
       </c>
@@ -4582,7 +4592,7 @@
       <c r="O82" s="18"/>
       <c r="R82" s="20"/>
     </row>
-    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83" s="27" t="s">
         <v>100</v>
       </c>
@@ -4616,7 +4626,7 @@
       <c r="O83" s="18"/>
       <c r="R83" s="20"/>
     </row>
-    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84" s="27" t="s">
         <v>100</v>
       </c>
@@ -4650,7 +4660,7 @@
       <c r="O84" s="18"/>
       <c r="R84" s="20"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="31"/>
@@ -4667,7 +4677,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" s="20" t="s">
         <v>96</v>
       </c>
@@ -4704,7 +4714,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87" s="22" t="s">
         <v>99</v>
       </c>
@@ -4737,7 +4747,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88" s="22" t="s">
         <v>99</v>
       </c>
@@ -4770,7 +4780,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89" s="22" t="s">
         <v>99</v>
       </c>
@@ -4803,7 +4813,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="31"/>
@@ -4820,7 +4830,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91" s="20" t="s">
         <v>95</v>
       </c>
@@ -4857,7 +4867,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92" s="22" t="s">
         <v>98</v>
       </c>
@@ -4890,7 +4900,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" s="22" t="s">
         <v>98</v>
       </c>
@@ -4923,7 +4933,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94" s="22" t="s">
         <v>98</v>
       </c>
@@ -4956,7 +4966,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="31"/>
@@ -4973,7 +4983,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="1" customFormat="1">
       <c r="A96" s="21" t="s">
         <v>110</v>
       </c>
@@ -5010,7 +5020,7 @@
       <c r="N96" s="26"/>
       <c r="O96" s="26"/>
     </row>
-    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="27" t="s">
         <v>110</v>
       </c>
@@ -5042,7 +5052,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="27" t="s">
         <v>110</v>
       </c>
@@ -5074,7 +5084,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="31"/>
@@ -5090,7 +5100,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="21" t="s">
         <v>111</v>
       </c>
@@ -5126,7 +5136,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="22" t="s">
         <v>111</v>
       </c>
@@ -5158,7 +5168,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -5190,7 +5200,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="31"/>
@@ -5206,7 +5216,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="21" t="s">
         <v>112</v>
       </c>
@@ -5242,7 +5252,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="22" t="s">
         <v>112</v>
       </c>
@@ -5275,7 +5285,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="22" t="s">
         <v>112</v>
       </c>
@@ -5308,7 +5318,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="27"/>
       <c r="B107" s="27"/>
       <c r="C107" s="31"/>
@@ -5325,7 +5335,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="21" t="s">
         <v>113</v>
       </c>
@@ -5362,7 +5372,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="22" t="s">
         <v>113</v>
       </c>
@@ -5395,7 +5405,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="22" t="s">
         <v>113</v>
       </c>
@@ -5428,7 +5438,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="31"/>
@@ -5436,7 +5446,7 @@
       <c r="E111" s="33"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="21" t="s">
         <v>81</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="22" t="s">
         <v>81</v>
       </c>
@@ -5495,7 +5505,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="31"/>
@@ -5512,7 +5522,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="21" t="s">
         <v>82</v>
       </c>
@@ -5544,7 +5554,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="22" t="s">
         <v>82</v>
       </c>
@@ -5571,7 +5581,7 @@
       </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="31"/>
@@ -5587,7 +5597,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="21" t="s">
         <v>83</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="22" t="s">
         <v>83</v>
       </c>
@@ -5646,7 +5656,7 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="31"/>
@@ -5663,7 +5673,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="21" t="s">
         <v>84</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="22" t="s">
         <v>84</v>
       </c>
@@ -5722,7 +5732,7 @@
       </c>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="31"/>
@@ -5739,7 +5749,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="21" t="s">
         <v>142</v>
       </c>
@@ -5770,11 +5780,11 @@
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="F125" s="42"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:15" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" s="42" customFormat="1">
       <c r="A126" s="2" t="s">
         <v>143</v>
       </c>
@@ -5805,7 +5815,7 @@
       <c r="N126" s="49"/>
       <c r="O126" s="49"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -5822,7 +5832,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -5838,7 +5848,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -5854,7 +5864,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -5871,7 +5881,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
